--- a/Ajankäytönseuranta.xlsx
+++ b/Ajankäytönseuranta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lahde\OneDrive\Tiedostot\Gitit\AmpuminenR1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5D6C835-D14D-458C-A39D-E088DB21F678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CB3734-E43B-4D6D-9908-37B551368A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{9A2652D0-B9C0-4C5B-994F-291FBF012228}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9A2652D0-B9C0-4C5B-994F-291FBF012228}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Eveliina</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Käytetty aika</t>
+  </si>
+  <si>
+    <t>3 h</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -160,6 +163,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -476,29 +480,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35986E9F-C3CA-4760-84FC-72F9332BEB4A}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -536,6 +542,12 @@
       </c>
       <c r="J3" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="K3" s="7">
+        <v>45324</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
